--- a/xlsx/亞利桑那州_intext.xlsx
+++ b/xlsx/亞利桑那州_intext.xlsx
@@ -29,7 +29,7 @@
     <t>美國</t>
   </si>
   <si>
-    <t>政策_政策_美國_亞利桑那州</t>
+    <t>体育运动_体育运动_袋棍球_亞利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E5%B7%9E%E6%97%97</t>
